--- a/GNN/plan.xlsx
+++ b/GNN/plan.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local_github\notebook\GNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF7E960-EF22-4E9E-B3E4-EA61218F94F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E980F687-ABFD-4E1B-9A37-162B5939D65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="2124" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
-    <sheet name="9月21-9月271" sheetId="2" r:id="rId2"/>
+    <sheet name="9月21-9月27" sheetId="2" r:id="rId2"/>
+    <sheet name="9028-1004" sheetId="3" r:id="rId3"/>
+    <sheet name="1005-1011" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +200,33 @@
   </si>
   <si>
     <t>对任务进行拆解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置GraphNAS: Graph Neural Architecture Search with Reinforcement Learning实验环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.完成“图神经网络—数学基础1.2、1.3撰写”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GraphNAS论文代码实验运行成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GraphNAS代码理解：
+1.理解强化学习机制部分代码运行机制
+2.画出代码运行流程图
+3.对代码进行注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文EXCEL归类表格设计，并将已阅读论文内容填充</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,6 +423,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,6 +456,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,7 +749,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A13" sqref="A1:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -718,19 +762,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -742,7 +786,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
@@ -751,35 +795,35 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2"/>
@@ -788,35 +832,35 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2"/>
@@ -825,35 +869,35 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2"/>
@@ -862,35 +906,35 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="2"/>
@@ -899,35 +943,35 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="2"/>
@@ -936,35 +980,35 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="2"/>
@@ -973,28 +1017,28 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1002,15 +1046,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1022,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4887F1-9864-45B2-86A3-03C2E5B453C3}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1036,19 +1080,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1060,7 +1104,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
@@ -1069,35 +1113,35 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2"/>
@@ -1106,35 +1150,35 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2"/>
@@ -1143,35 +1187,35 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1186,7 +1230,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1199,7 +1243,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1212,7 +1256,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1227,14 +1271,14 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1251,7 +1295,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -1264,7 +1308,7 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
@@ -1277,21 +1321,21 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="2"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="2"/>
@@ -1300,35 +1344,35 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="2"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="2"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="2"/>
@@ -1337,28 +1381,28 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="2"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="2"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="2"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="2"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1379,4 +1423,662 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85A9D6A-0274-4C51-BA05-1DB5FBE437AE}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36398654-7F73-4B65-BC4D-6970960AE23A}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GNN/plan.xlsx
+++ b/GNN/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local_github\notebook\GNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E980F687-ABFD-4E1B-9A37-162B5939D65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8DEBE5-56D6-4EC3-9CF8-03FD92B90019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2124" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2988" yWindow="2256" windowWidth="15864" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GraphNAS论文代码实验运行成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +223,15 @@
   </si>
   <si>
     <t>论文EXCEL归类表格设计，并将已阅读论文内容填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.集中注意力解决问题，不要分心
+2.拆分任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,6 +435,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,15 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,19 +767,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -786,7 +791,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
@@ -795,35 +800,35 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2"/>
@@ -832,35 +837,35 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2"/>
@@ -869,35 +874,35 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2"/>
@@ -906,35 +911,35 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="2"/>
@@ -943,35 +948,35 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="2"/>
@@ -980,35 +985,35 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="2"/>
@@ -1017,28 +1022,28 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1080,19 +1085,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1109,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
@@ -1113,35 +1118,35 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2"/>
@@ -1150,35 +1155,35 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2"/>
@@ -1187,35 +1192,35 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1230,7 +1235,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1243,7 +1248,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1256,7 +1261,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1271,14 +1276,14 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1295,7 +1300,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -1308,7 +1313,7 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
@@ -1321,21 +1326,21 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="2"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="2"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="2"/>
@@ -1344,35 +1349,35 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="2"/>
@@ -1381,28 +1386,28 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="2"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1443,19 +1448,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1467,7 +1472,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
@@ -1476,35 +1481,35 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2"/>
       <c r="C4" s="8"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2"/>
       <c r="C6" s="8"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="2"/>
       <c r="C7" s="8"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2"/>
@@ -1513,35 +1518,35 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="8"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="8"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2"/>
       <c r="C11" s="8"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="8"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1554,7 +1559,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1565,28 +1570,28 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="8"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="2"/>
       <c r="C16" s="8"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="2"/>
       <c r="C17" s="8"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2"/>
@@ -1595,35 +1600,35 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="2"/>
       <c r="C19" s="8"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="2"/>
       <c r="C20" s="8"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="2"/>
       <c r="C21" s="8"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2"/>
       <c r="C22" s="8"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="2"/>
@@ -1632,35 +1637,35 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="2"/>
       <c r="C24" s="8"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="2"/>
       <c r="C25" s="8"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="2"/>
       <c r="C26" s="8"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="2"/>
       <c r="C27" s="8"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="2"/>
@@ -1669,35 +1674,35 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="8"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="8"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="8"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="8"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="2"/>
@@ -1706,28 +1711,28 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="8"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="8"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="8"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="2"/>
       <c r="C37" s="8"/>
       <c r="D37" s="2"/>
@@ -1755,33 +1760,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36398654-7F73-4B65-BC4D-6970960AE23A}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1793,275 +1798,285 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="19" t="s">
-        <v>29</v>
+      <c r="A4" s="17"/>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="20"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="20"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="20"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="20"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="20"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="20"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="20"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="20"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="20"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="20"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="20"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="20"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="20"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="20"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="20"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="20"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="20"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="20"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="20"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="20"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="20"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="20"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="20"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="20"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="20"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
